--- a/mapping/BAO_CHMO.xlsx
+++ b/mapping/BAO_CHMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="164">
   <si>
     <t>BAO_IRI</t>
   </si>
@@ -28,6 +28,15 @@
     <t>CHMO_DESC</t>
   </si>
   <si>
+    <t>CHMO_DEF</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_23367</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003116</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002929</t>
   </si>
   <si>
@@ -49,9 +58,6 @@
     <t>http://www.bioassayontology.org/bao#BAO_0003043</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0003116</t>
-  </si>
-  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000055</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>http://www.bioassayontology.org/bao#BAO_0002523</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0040042</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0150010</t>
   </si>
   <si>
@@ -139,6 +148,12 @@
     <t>http://www.bioassayontology.org/bao#BAO_0150033</t>
   </si>
   <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_23367'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material entity', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003116'}</t>
+  </si>
+  <si>
     <t>{'label': 'role', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002929'}</t>
   </si>
   <si>
@@ -160,9 +175,6 @@
     <t>{'label': 'molecular entity', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003043'}</t>
   </si>
   <si>
-    <t>{'label': 'material entity', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003116'}</t>
-  </si>
-  <si>
     <t>{'label': 'mass spectrometry', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000055'}</t>
   </si>
   <si>
@@ -235,6 +247,9 @@
     <t>{'label': 'atomic force microscopy', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002523'}</t>
   </si>
   <si>
+    <t>{'label': 'liquid chromatography-tandem mass spectrometry', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0040042'}</t>
+  </si>
+  <si>
     <t>{'label': 'confocal microscope', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0150010'}</t>
   </si>
   <si>
@@ -250,6 +265,9 @@
     <t>{'label': 'laser', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0150033'}</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
   </si>
   <si>
@@ -268,12 +286,6 @@
     <t>http://purl.obolibrary.org/obo/CHMO_0000061</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_23367</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/CHMO_0000470</t>
   </si>
   <si>
@@ -346,6 +358,9 @@
     <t>http://purl.obolibrary.org/obo/CHMO_0000113</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0000701</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHMO_0001125</t>
   </si>
   <si>
@@ -361,6 +376,9 @@
     <t>http://purl.obolibrary.org/obo/OBI_0400064</t>
   </si>
   <si>
+    <t>{'label': 'material entity', 'prefLabel': 'material entity'}</t>
+  </si>
+  <si>
     <t>{'label': 'role', 'prefLabel': 'role'}</t>
   </si>
   <si>
@@ -382,9 +400,6 @@
     <t>{'label': 'molecular entity', 'prefLabel': 'molecular entity'}</t>
   </si>
   <si>
-    <t>{'label': 'material entity', 'prefLabel': 'material entity'}</t>
-  </si>
-  <si>
     <t>{'label': 'mass spectrometry'}</t>
   </si>
   <si>
@@ -457,6 +472,9 @@
     <t>{'label': 'atomic force microscopy'}</t>
   </si>
   <si>
+    <t>{'label': 'liquid chromatography-tandem mass spectrometry'}</t>
+  </si>
+  <si>
     <t>{'label': 'confocal microscope'}</t>
   </si>
   <si>
@@ -470,6 +488,24 @@
   </si>
   <si>
     <t>{'label': 'laser'}</t>
+  </si>
+  <si>
+    <t>['Any constitutionally or isotopically distinct atom, molecule, ion, ion pair, radical, radical ion, complex, conformer etc., identifiable as a separately distinguishable entity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['A material entity is an independent continuant that has some portion of matter as proper or improper continuant part. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be and b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A function is a disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. [BFO]']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized. [BFO]']</t>
   </si>
 </sst>
 </file>
@@ -840,13 +876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,712 +895,870 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>143</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>145</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>151</v>
+      </c>
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="F36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="BAO_0002929"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3" location="BAO_0003117"/>
+    <hyperlink ref="B3" r:id="rId3" location="BAO_0003116"/>
     <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5" location="BAO_0002527"/>
+    <hyperlink ref="B4" r:id="rId5" location="BAO_0002929"/>
     <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7" location="BAO_0002928"/>
+    <hyperlink ref="B5" r:id="rId7" location="BAO_0003117"/>
     <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9" location="BAO_0000001"/>
+    <hyperlink ref="B6" r:id="rId9" location="BAO_0002527"/>
     <hyperlink ref="D6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11" location="BAO_0000005"/>
+    <hyperlink ref="B7" r:id="rId11" location="BAO_0002928"/>
     <hyperlink ref="D7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13" location="BAO_0003043"/>
+    <hyperlink ref="B8" r:id="rId13" location="BAO_0000001"/>
     <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15" location="BAO_0003116"/>
+    <hyperlink ref="B9" r:id="rId15" location="BAO_0000005"/>
     <hyperlink ref="D9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17" location="BAO_0000055"/>
+    <hyperlink ref="B10" r:id="rId17" location="BAO_0003043"/>
     <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19" location="BAO_0000064"/>
+    <hyperlink ref="B11" r:id="rId19" location="BAO_0000055"/>
     <hyperlink ref="D11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21" location="BAO_0000450"/>
+    <hyperlink ref="B12" r:id="rId21" location="BAO_0000064"/>
     <hyperlink ref="D12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23" location="BAO_0000087"/>
+    <hyperlink ref="B13" r:id="rId23" location="BAO_0000450"/>
     <hyperlink ref="D13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25" location="BAO_0000134"/>
+    <hyperlink ref="B14" r:id="rId25" location="BAO_0000087"/>
     <hyperlink ref="D14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27" location="BAO_0000428"/>
+    <hyperlink ref="B15" r:id="rId27" location="BAO_0000134"/>
     <hyperlink ref="D15" r:id="rId28"/>
-    <hyperlink ref="B16" r:id="rId29" location="BAO_0000449"/>
+    <hyperlink ref="B16" r:id="rId29" location="BAO_0000428"/>
     <hyperlink ref="D16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31" location="BAO_0002526"/>
+    <hyperlink ref="B17" r:id="rId31" location="BAO_0000449"/>
     <hyperlink ref="D17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33" location="BAO_0000451"/>
+    <hyperlink ref="B18" r:id="rId33" location="BAO_0002526"/>
     <hyperlink ref="D18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35" location="BAO_0000453"/>
+    <hyperlink ref="B19" r:id="rId35" location="BAO_0000451"/>
     <hyperlink ref="D19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37" location="BAO_0000454"/>
+    <hyperlink ref="B20" r:id="rId37" location="BAO_0000453"/>
     <hyperlink ref="D20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39" location="BAO_0000455"/>
+    <hyperlink ref="B21" r:id="rId39" location="BAO_0000454"/>
     <hyperlink ref="D21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41" location="BAO_0000456"/>
+    <hyperlink ref="B22" r:id="rId41" location="BAO_0000455"/>
     <hyperlink ref="D22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43" location="BAO_0000458"/>
+    <hyperlink ref="B23" r:id="rId43" location="BAO_0000456"/>
     <hyperlink ref="D23" r:id="rId44"/>
-    <hyperlink ref="B24" r:id="rId45" location="BAO_0000459"/>
+    <hyperlink ref="B24" r:id="rId45" location="BAO_0000458"/>
     <hyperlink ref="D24" r:id="rId46"/>
-    <hyperlink ref="B25" r:id="rId47" location="BAO_0000461"/>
+    <hyperlink ref="B25" r:id="rId47" location="BAO_0000459"/>
     <hyperlink ref="D25" r:id="rId48"/>
-    <hyperlink ref="B26" r:id="rId49" location="BAO_0000696"/>
+    <hyperlink ref="B26" r:id="rId49" location="BAO_0000461"/>
     <hyperlink ref="D26" r:id="rId50"/>
-    <hyperlink ref="B27" r:id="rId51" location="BAO_0002135"/>
+    <hyperlink ref="B27" r:id="rId51" location="BAO_0000696"/>
     <hyperlink ref="D27" r:id="rId52"/>
-    <hyperlink ref="B28" r:id="rId53" location="BAO_0002454"/>
+    <hyperlink ref="B28" r:id="rId53" location="BAO_0002135"/>
     <hyperlink ref="D28" r:id="rId54"/>
-    <hyperlink ref="B29" r:id="rId55" location="BAO_0002500"/>
+    <hyperlink ref="B29" r:id="rId55" location="BAO_0002454"/>
     <hyperlink ref="D29" r:id="rId56"/>
-    <hyperlink ref="B30" r:id="rId57" location="BAO_0002508"/>
+    <hyperlink ref="B30" r:id="rId57" location="BAO_0002500"/>
     <hyperlink ref="D30" r:id="rId58"/>
-    <hyperlink ref="B31" r:id="rId59" location="BAO_0002511"/>
+    <hyperlink ref="B31" r:id="rId59" location="BAO_0002508"/>
     <hyperlink ref="D31" r:id="rId60"/>
-    <hyperlink ref="B32" r:id="rId61" location="BAO_0002512"/>
+    <hyperlink ref="B32" r:id="rId61" location="BAO_0002511"/>
     <hyperlink ref="D32" r:id="rId62"/>
-    <hyperlink ref="B33" r:id="rId63" location="BAO_0002523"/>
+    <hyperlink ref="B33" r:id="rId63" location="BAO_0002512"/>
     <hyperlink ref="D33" r:id="rId64"/>
-    <hyperlink ref="B34" r:id="rId65" location="BAO_0150010"/>
+    <hyperlink ref="B34" r:id="rId65" location="BAO_0002523"/>
     <hyperlink ref="D34" r:id="rId66"/>
-    <hyperlink ref="B35" r:id="rId67" location="BAO_0150008"/>
+    <hyperlink ref="B35" r:id="rId67" location="BAO_0040042"/>
     <hyperlink ref="D35" r:id="rId68"/>
-    <hyperlink ref="B36" r:id="rId69" location="BAO_0150009"/>
+    <hyperlink ref="B36" r:id="rId69" location="BAO_0150010"/>
     <hyperlink ref="D36" r:id="rId70"/>
-    <hyperlink ref="B37" r:id="rId71" location="BAO_0150029"/>
+    <hyperlink ref="B37" r:id="rId71" location="BAO_0150008"/>
     <hyperlink ref="D37" r:id="rId72"/>
-    <hyperlink ref="B38" r:id="rId73" location="BAO_0150033"/>
+    <hyperlink ref="B38" r:id="rId73" location="BAO_0150009"/>
     <hyperlink ref="D38" r:id="rId74"/>
+    <hyperlink ref="B39" r:id="rId75" location="BAO_0150029"/>
+    <hyperlink ref="D39" r:id="rId76"/>
+    <hyperlink ref="B40" r:id="rId77" location="BAO_0150033"/>
+    <hyperlink ref="D40" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
